--- a/webui/resources/TestData/TestData.xlsx
+++ b/webui/resources/TestData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Autothon 2019\webui\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F9F74B-25DA-4E00-B49C-2A335119DF7C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AE9BA0-FF50-4162-87C5-C608A57984D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8E1EB67A-26BC-4AC1-AD9F-3E751CE15994}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{8E1EB67A-26BC-4AC1-AD9F-3E751CE15994}"/>
   </bookViews>
   <sheets>
     <sheet name="Logins" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>UserType</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Rating</t>
   </si>
   <si>
-    <t>Add_Movie</t>
-  </si>
-  <si>
     <t>Delete_Movie</t>
   </si>
   <si>
@@ -107,6 +104,24 @@
   </si>
   <si>
     <t>https://authothon-nagarro-frontend-b07.azurewebsites.net</t>
+  </si>
+  <si>
+    <t>verifyNewMovieAdded</t>
+  </si>
+  <si>
+    <t>AddNewMovie</t>
+  </si>
+  <si>
+    <t>addAndVerifyParallel</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Duke: Endgame is a 2019 American superhero film based on the Marvel Comics superhero team the Avengers, produced by Marvel Studios and distributed by Walt Disney Studios Motion Pictures.</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -476,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51287FE-583F-455D-A62A-5E3E830DEE26}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -507,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -537,10 +552,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F1509C-F66F-49E2-B932-98A71B5CA3CA}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -579,53 +594,100 @@
     </row>
     <row r="2" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" location="/media/File:Avengers_Endgame_poster.jpg" display="https://en.wikipedia.org/wiki/Avengers:_Endgame - /media/File:Avengers_Endgame_poster.jpg" xr:uid="{807E4D22-AF34-432A-824B-03EA9D3BCFA6}"/>
+    <hyperlink ref="F5" r:id="rId2" location="/media/File:Avengers_Endgame_poster.jpg" display="https://en.wikipedia.org/wiki/Avengers:_Endgame - /media/File:Avengers_Endgame_poster.jpg" xr:uid="{ABD620AF-5FD6-40A7-AD82-278BAFA6437B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
